--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H2">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N2">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O2">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P2">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q2">
-        <v>691.2516051005343</v>
+        <v>743.8383687865938</v>
       </c>
       <c r="R2">
-        <v>691.2516051005343</v>
+        <v>6694.545319079345</v>
       </c>
       <c r="S2">
-        <v>0.1804747396930178</v>
+        <v>0.1789043882477679</v>
       </c>
       <c r="T2">
-        <v>0.1804747396930178</v>
+        <v>0.1789043882477678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H3">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N3">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O3">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P3">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q3">
-        <v>1495.091583115075</v>
+        <v>1598.326170243894</v>
       </c>
       <c r="R3">
-        <v>1495.091583115075</v>
+        <v>14384.93553219504</v>
       </c>
       <c r="S3">
-        <v>0.3903445030564118</v>
+        <v>0.3844216401129469</v>
       </c>
       <c r="T3">
-        <v>0.3903445030564118</v>
+        <v>0.3844216401129468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H4">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.36690311765629</v>
+        <v>5.713974666666666</v>
       </c>
       <c r="N4">
-        <v>5.36690311765629</v>
+        <v>17.141924</v>
       </c>
       <c r="O4">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="P4">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="Q4">
-        <v>237.5355944051683</v>
+        <v>270.0233466433306</v>
       </c>
       <c r="R4">
-        <v>237.5355944051683</v>
+        <v>2430.210119789976</v>
       </c>
       <c r="S4">
-        <v>0.06201674506327431</v>
+        <v>0.06494470260070656</v>
       </c>
       <c r="T4">
-        <v>0.06201674506327431</v>
+        <v>0.06494470260070655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H5">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I5">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J5">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N5">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O5">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P5">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q5">
-        <v>176.2181000241743</v>
+        <v>177.6416943219483</v>
       </c>
       <c r="R5">
-        <v>176.2181000241743</v>
+        <v>1598.775248897535</v>
       </c>
       <c r="S5">
-        <v>0.04600772786116811</v>
+        <v>0.04272551670305546</v>
       </c>
       <c r="T5">
-        <v>0.04600772786116811</v>
+        <v>0.04272551670305545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H6">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I6">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J6">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N6">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O6">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P6">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q6">
-        <v>381.1379188050578</v>
+        <v>381.7084206403649</v>
       </c>
       <c r="R6">
-        <v>381.1379188050578</v>
+        <v>3435.375785763284</v>
       </c>
       <c r="S6">
-        <v>0.09950901549585162</v>
+        <v>0.09180665363509669</v>
       </c>
       <c r="T6">
-        <v>0.09950901549585162</v>
+        <v>0.09180665363509664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H7">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.36690311765629</v>
+        <v>5.713974666666666</v>
       </c>
       <c r="N7">
-        <v>5.36690311765629</v>
+        <v>17.141924</v>
       </c>
       <c r="O7">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="P7">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="Q7">
-        <v>60.55403101466054</v>
+        <v>64.48632769838443</v>
       </c>
       <c r="R7">
-        <v>60.55403101466054</v>
+        <v>580.3769492854599</v>
       </c>
       <c r="S7">
-        <v>0.01580968912635562</v>
+        <v>0.01550993803404416</v>
       </c>
       <c r="T7">
-        <v>0.01580968912635562</v>
+        <v>0.01550993803404415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H8">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I8">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J8">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N8">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O8">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P8">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q8">
-        <v>2.138070915219948</v>
+        <v>3.784887679601</v>
       </c>
       <c r="R8">
-        <v>2.138070915219948</v>
+        <v>34.063989116409</v>
       </c>
       <c r="S8">
-        <v>0.0005582161242336827</v>
+        <v>0.0009103227842496505</v>
       </c>
       <c r="T8">
-        <v>0.0005582161242336827</v>
+        <v>0.0009103227842496504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H9">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I9">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J9">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N9">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O9">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P9">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q9">
-        <v>4.624382505388295</v>
+        <v>8.132795085050999</v>
       </c>
       <c r="R9">
-        <v>4.624382505388295</v>
+        <v>73.19515576545899</v>
       </c>
       <c r="S9">
-        <v>0.001207352319680354</v>
+        <v>0.001956060335807896</v>
       </c>
       <c r="T9">
-        <v>0.001207352319680354</v>
+        <v>0.001956060335807895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H10">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I10">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J10">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.36690311765629</v>
+        <v>5.713974666666666</v>
       </c>
       <c r="N10">
-        <v>5.36690311765629</v>
+        <v>17.141924</v>
       </c>
       <c r="O10">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="P10">
-        <v>0.09799813262457661</v>
+        <v>0.1033705684511578</v>
       </c>
       <c r="Q10">
-        <v>0.7347077995620845</v>
+        <v>1.373965206422667</v>
       </c>
       <c r="R10">
-        <v>0.7347077995620845</v>
+        <v>12.365686857804</v>
       </c>
       <c r="S10">
-        <v>0.0001918204571215607</v>
+        <v>0.0003304594318383263</v>
       </c>
       <c r="T10">
-        <v>0.0001918204571215607</v>
+        <v>0.0003304594318383263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H11">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I11">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J11">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6182083101658</v>
+        <v>15.740393</v>
       </c>
       <c r="N11">
-        <v>15.6182083101658</v>
+        <v>47.221179</v>
       </c>
       <c r="O11">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="P11">
-        <v>0.2851840653323143</v>
+        <v>0.2847568403735705</v>
       </c>
       <c r="Q11">
-        <v>222.6998967422954</v>
+        <v>3.020707339844</v>
       </c>
       <c r="R11">
-        <v>222.6998967422954</v>
+        <v>27.186366058596</v>
       </c>
       <c r="S11">
-        <v>0.05814338165389474</v>
+        <v>0.0007265258440377363</v>
       </c>
       <c r="T11">
-        <v>0.05814338165389474</v>
+        <v>0.0007265258440377361</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H12">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I12">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J12">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.7802496450923</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N12">
-        <v>33.7802496450923</v>
+        <v>101.466729</v>
       </c>
       <c r="O12">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752718</v>
       </c>
       <c r="P12">
-        <v>0.6168178020431091</v>
+        <v>0.6118725911752717</v>
       </c>
       <c r="Q12">
-        <v>481.6722865064125</v>
+        <v>6.490759009643998</v>
       </c>
       <c r="R12">
-        <v>481.6722865064125</v>
+        <v>58.41683108679599</v>
       </c>
       <c r="S12">
-        <v>0.1257569311711654</v>
+        <v>0.001561125801803323</v>
       </c>
       <c r="T12">
-        <v>0.1257569311711654</v>
+        <v>0.001561125801803323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.191908</v>
+      </c>
+      <c r="H13">
+        <v>0.575724</v>
+      </c>
+      <c r="I13">
+        <v>0.002551390312817814</v>
+      </c>
+      <c r="J13">
+        <v>0.002551390312817813</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.713974666666666</v>
+      </c>
+      <c r="N13">
+        <v>17.141924</v>
+      </c>
+      <c r="O13">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="P13">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="Q13">
+        <v>1.096557450330667</v>
+      </c>
+      <c r="R13">
+        <v>9.869017052976</v>
+      </c>
+      <c r="S13">
+        <v>0.0002637386669767548</v>
+      </c>
+      <c r="T13">
+        <v>0.0002637386669767548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="H13">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="I13">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="J13">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.36690311765629</v>
-      </c>
-      <c r="N13">
-        <v>5.36690311765629</v>
-      </c>
-      <c r="O13">
-        <v>0.09799813262457661</v>
-      </c>
-      <c r="P13">
-        <v>0.09799813262457661</v>
-      </c>
-      <c r="Q13">
-        <v>76.52662497464607</v>
-      </c>
-      <c r="R13">
-        <v>76.52662497464607</v>
-      </c>
-      <c r="S13">
-        <v>0.01997987797782514</v>
-      </c>
-      <c r="T13">
-        <v>0.01997987797782514</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H14">
+        <v>48.726854</v>
+      </c>
+      <c r="I14">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J14">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.740393</v>
+      </c>
+      <c r="N14">
+        <v>47.221179</v>
+      </c>
+      <c r="O14">
+        <v>0.2847568403735705</v>
+      </c>
+      <c r="P14">
+        <v>0.2847568403735705</v>
+      </c>
+      <c r="Q14">
+        <v>255.6599438712073</v>
+      </c>
+      <c r="R14">
+        <v>2300.939494840866</v>
+      </c>
+      <c r="S14">
+        <v>0.06149008679445975</v>
+      </c>
+      <c r="T14">
+        <v>0.06149008679445973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H15">
+        <v>48.726854</v>
+      </c>
+      <c r="I15">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J15">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>33.82224299999999</v>
+      </c>
+      <c r="N15">
+        <v>101.466729</v>
+      </c>
+      <c r="O15">
+        <v>0.6118725911752718</v>
+      </c>
+      <c r="P15">
+        <v>0.6118725911752717</v>
+      </c>
+      <c r="Q15">
+        <v>549.3504988711738</v>
+      </c>
+      <c r="R15">
+        <v>4944.154489840565</v>
+      </c>
+      <c r="S15">
+        <v>0.132127111289617</v>
+      </c>
+      <c r="T15">
+        <v>0.132127111289617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H16">
+        <v>48.726854</v>
+      </c>
+      <c r="I16">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J16">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.713974666666666</v>
+      </c>
+      <c r="N16">
+        <v>17.141924</v>
+      </c>
+      <c r="O16">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="P16">
+        <v>0.1033705684511578</v>
+      </c>
+      <c r="Q16">
+        <v>92.80800311412177</v>
+      </c>
+      <c r="R16">
+        <v>835.2720280270959</v>
+      </c>
+      <c r="S16">
+        <v>0.02232172971759203</v>
+      </c>
+      <c r="T16">
+        <v>0.02232172971759202</v>
       </c>
     </row>
   </sheetData>
